--- a/biology/Médecine/Fonds_de_recherche_du_Québec_–_Santé/Fonds_de_recherche_du_Québec_–_Santé.xlsx
+++ b/biology/Médecine/Fonds_de_recherche_du_Québec_–_Santé/Fonds_de_recherche_du_Québec_–_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_de_recherche_du_Qu%C3%A9bec_%E2%80%93_Sant%C3%A9</t>
+          <t>Fonds_de_recherche_du_Québec_–_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Fonds de recherche du Québec – Santé (FRQS) est un organisme à but non lucratif instauré par le Gouvernement du Québec et visant à promouvoir et à développer la recherche sur la santé (fondamentale, clinique, épidémiologique), la recherche en santé publique et la recherche sur les services de santé.
-Avec le Fonds de recherche du Québec – Nature et technologies (FRQNT) et le Fonds de recherche du Québec - Société et culture (FRQSC), il constitue l'un des trois Fonds de recherche du Québec et est l'un des principaux organismes subventionnaires de la recherche universitaire au Québec[1]. Il relève du Ministère l'Enseignement supérieur, de la Recherche et de la Science (MESRS). En 2016, le FRQS disposait d’un budget de 77 millions pour financer la recherche[2].
+Avec le Fonds de recherche du Québec – Nature et technologies (FRQNT) et le Fonds de recherche du Québec - Société et culture (FRQSC), il constitue l'un des trois Fonds de recherche du Québec et est l'un des principaux organismes subventionnaires de la recherche universitaire au Québec. Il relève du Ministère l'Enseignement supérieur, de la Recherche et de la Science (MESRS). En 2016, le FRQS disposait d’un budget de 77 millions pour financer la recherche.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_de_recherche_du_Qu%C3%A9bec_%E2%80%93_Sant%C3%A9</t>
+          <t>Fonds_de_recherche_du_Québec_–_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonds_de_recherche_du_Qu%C3%A9bec_%E2%80%93_Sant%C3%A9</t>
+          <t>Fonds_de_recherche_du_Québec_–_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,10 +553,12 @@
           <t>Gouvernance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le FRQS a été créé par la Loi sur le ministère de l’Enseignement supérieur, de la Recherche, de la Science et de la Technologie (RLRQ, chap. M - 15.1.0.1) qui remplace la Loi sur le ministère du Développement économique, de l'Innovation et de l'Exportation (RLRQ, chap. M-30.01)[3].
-Le FRQS est dirigé par un conseil d’administration nommé par le gouvernement du Québec. Celui-ci est formé d'au plus 15 membres. Le conseil d'administration est aidé de quatre comités statutaires: le Comité sur l'éthique et l'intégrité scientifique, le Comité de gouvernance, le Comité des programmes et le Comité de vérification, en plus du Comité conjoint sur la conduite responsable en recherche (commun aux trois Fonds) et du Comité intersectoriel étudiant qui relève directement du scientifique en chef[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le FRQS a été créé par la Loi sur le ministère de l’Enseignement supérieur, de la Recherche, de la Science et de la Technologie (RLRQ, chap. M - 15.1.0.1) qui remplace la Loi sur le ministère du Développement économique, de l'Innovation et de l'Exportation (RLRQ, chap. M-30.01).
+Le FRQS est dirigé par un conseil d’administration nommé par le gouvernement du Québec. Celui-ci est formé d'au plus 15 membres. Le conseil d'administration est aidé de quatre comités statutaires: le Comité sur l'éthique et l'intégrité scientifique, le Comité de gouvernance, le Comité des programmes et le Comité de vérification, en plus du Comité conjoint sur la conduite responsable en recherche (commun aux trois Fonds) et du Comité intersectoriel étudiant qui relève directement du scientifique en chef.
 </t>
         </is>
       </c>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonds_de_recherche_du_Qu%C3%A9bec_%E2%80%93_Sant%C3%A9</t>
+          <t>Fonds_de_recherche_du_Québec_–_Santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, le FRQS est regroupé dans une nouvelle structure, les Fonds de recherche du Québec (FRQSC, FRQNT, FRQS). Les trois fonds de recherche conservent toutefois un conseil d'administration indépendant. Depuis le 1er juillet 2011, le scientifique en chef, Rémi Quirion, assure leur bon fonctionnement en collaboration avec les directeurs scientifiques de chaque fonds.
-De 2012 à 2017, le poste de directeur scientifique a été occupé par le Dr Renaldo Battista[5]. Serge Marchand a ensuite occupé le poste de directeur scientifique du Fonds du 29 août 2017[5],[6] à janvier 2019[7]. Le scientifique en chef Rémi Quirion a alors assuré l'intérim, puis Carole Jabet est devenue la directrice scientifique du Fonds en août 2019[8].
+De 2012 à 2017, le poste de directeur scientifique a été occupé par le Dr Renaldo Battista. Serge Marchand a ensuite occupé le poste de directeur scientifique du Fonds du 29 août 2017, à janvier 2019. Le scientifique en chef Rémi Quirion a alors assuré l'intérim, puis Carole Jabet est devenue la directrice scientifique du Fonds en août 2019.
 </t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fonds_de_recherche_du_Qu%C3%A9bec_%E2%80%93_Sant%C3%A9</t>
+          <t>Fonds_de_recherche_du_Québec_–_Santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,9 +621,11 @@
           <t>Conseil d'administration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le conseil d'administration est actuellement[Quand ?] composé de[9]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le conseil d'administration est actuellement[Quand ?] composé de:
 Rémi Quirion - Président, scientifique en chef
 Jean-Christophe Bélisle-Pipon - Membre, chercheur post-doctoral, Harvard
 Diane Côté - Membre, PDG / Consortium MEDTEQ
